--- a/biology/Botanique/Tabouret_à_feuilles_rondes/Tabouret_à_feuilles_rondes.xlsx
+++ b/biology/Botanique/Tabouret_à_feuilles_rondes/Tabouret_à_feuilles_rondes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tabouret_%C3%A0_feuilles_rondes</t>
+          <t>Tabouret_à_feuilles_rondes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Noccaea rotundifolia
 Noccaea rotundifolia, le tabouret à feuilles rondes ou cresson des chamois, est une espèce de plantes herbacées vivaces du genre Noccaea et de la famille des Brassicaceae (crucifères).
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tabouret_%C3%A0_feuilles_rondes</t>
+          <t>Tabouret_à_feuilles_rondes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Petite plante de 8 à 15 cm de haut. Tiges ramifiées à la base et rampantes. Feuilles en rosette, un peu épaisses, en forme de spatule. Fleurs groupées aux extrémités des tiges, à 4 pétales roses.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tabouret_%C3%A0_feuilles_rondes</t>
+          <t>Tabouret_à_feuilles_rondes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Éboulis non stabilisés, jusqu'à 3 000 mètres d'altitude dans les Alpes.
 </t>
